--- a/app/Отчеты/Квитанции наш дом.xlsx
+++ b/app/Отчеты/Квитанции наш дом.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -37,9 +42,6 @@
   </si>
   <si>
     <t>${lc.lc_regto}</t>
-  </si>
-  <si>
-    <t>${lc.barcode}</t>
   </si>
   <si>
     <t>Л/с ${lc.lc_num}</t>
@@ -196,32 +198,33 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
-Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-908-564-80-32 (Набокин В.И.)                                                     </t>
-  </si>
-  <si>
-    <t>${Group.percent}</t>
-  </si>
-  <si>
     <t>К оплате всего :${lc.percent}</t>
   </si>
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
   <si>
+    <t>За тех. обслуживание и коммунальные услуги</t>
+  </si>
+  <si>
+    <t>Показания счетчиков</t>
+  </si>
+  <si>
+    <t>${lc.counters4ask}</t>
+  </si>
+  <si>
+    <t>Текущее</t>
+  </si>
+  <si>
+    <t>Предыдущее</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">За тех. обслуживание и коммунальные услуги
-${Group.grp_fname}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ИНН ${Group.group_inn} КПП ${Group.group_kpp}</t>
+      <t>За тех. обслуживание и коммунальные услуги
+${Group.grp_fname}</t>
     </r>
     <r>
       <rPr>
@@ -247,24 +250,6 @@
 БИК ${Group.bank_bik}        К/с ${Group.bank_correction}</t>
     </r>
   </si>
-  <si>
-    <t>За тех. обслуживание и коммунальные услуги</t>
-  </si>
-  <si>
-    <t>Показания счетчиков</t>
-  </si>
-  <si>
-    <t>${lc.counters4ask}</t>
-  </si>
-  <si>
-    <t>Текущее</t>
-  </si>
-  <si>
-    <t>Предыдущее</t>
-  </si>
-  <si>
-    <t>Расход</t>
-  </si>
 </sst>
 </file>
 
@@ -273,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -387,20 +372,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -847,7 +818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1042,9 +1013,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1075,12 +1043,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1105,15 +1067,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1512,10 +1474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1542,7 +1504,7 @@
       </c>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:18" ht="87" customHeight="1">
+    <row r="2" spans="1:18" ht="68.25" customHeight="1">
       <c r="A2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1553,18 +1515,18 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
+      <c r="K2" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="98"/>
+      <c r="M2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
@@ -1586,10 +1548,10 @@
       <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="97"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
@@ -1610,8 +1572,8 @@
       <c r="N4" s="84"/>
       <c r="O4" s="85"/>
       <c r="P4" s="83"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
     </row>
     <row r="5" spans="1:18" ht="35.25" thickBot="1">
       <c r="A5" s="2"/>
@@ -1626,14 +1588,12 @@
       <c r="J5" s="28"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="M5" s="31"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5" s="9"/>
     </row>
@@ -1651,14 +1611,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
       <c r="R6" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75">
@@ -1675,14 +1635,14 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75">
@@ -1699,14 +1659,14 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1">
@@ -1723,14 +1683,14 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="3.95" customHeight="1">
@@ -1784,16 +1744,16 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
+      <c r="K12" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2"/>
@@ -1808,11 +1768,11 @@
       <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="21"/>
@@ -1839,69 +1799,69 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
+      <c r="C15" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="20"/>
       <c r="J15" s="28"/>
       <c r="K15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
+      <c r="M15" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="96"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="96"/>
+      <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -1912,7 +1872,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="43"/>
       <c r="M17" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
@@ -1928,7 +1888,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="39"/>
@@ -1940,143 +1900,143 @@
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="C19" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="44"/>
       <c r="J19" s="39"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
+      <c r="M19" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="45"/>
       <c r="H20" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="47"/>
       <c r="J20" s="39"/>
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
       <c r="G21" s="45"/>
       <c r="H21" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="47"/>
       <c r="J21" s="39"/>
       <c r="K21" s="43"/>
       <c r="L21" s="43"/>
       <c r="M21" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
       <c r="G22" s="45"/>
       <c r="H22" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="47"/>
       <c r="J22" s="39"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" s="43"/>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5" thickBot="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="45"/>
       <c r="H23" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="39"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
       <c r="M23" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N23" s="43"/>
       <c r="O23" s="43"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="27.75" customHeight="1">
@@ -2092,11 +2052,11 @@
       <c r="J24" s="39"/>
       <c r="K24" s="43"/>
       <c r="L24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="45"/>
       <c r="R24" s="50"/>
@@ -2123,54 +2083,54 @@
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="52" t="s">
+      <c r="E26" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="F26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="G26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="H26" s="53" t="s">
         <v>24</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>25</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="39"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="106" t="s">
+      <c r="L26" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="104"/>
+      <c r="N26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="107"/>
-      <c r="N26" s="52" t="s">
+      <c r="O26" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="52" t="s">
+      <c r="P26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="Q26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="R26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="53" t="s">
+      <c r="S26" t="s">
         <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75">
       <c r="A27" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="57"/>
@@ -2192,50 +2152,50 @@
     </row>
     <row r="28" spans="1:19" ht="15.75">
       <c r="A28" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="C28" s="106"/>
+      <c r="D28" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="61" t="s">
+      <c r="E28" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="F28" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="G28" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="H28" s="63" t="s">
         <v>33</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>34</v>
       </c>
       <c r="I28" s="64"/>
       <c r="J28" s="39"/>
       <c r="K28" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="108" t="s">
+      <c r="M28" s="106"/>
+      <c r="N28" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="109"/>
-      <c r="N28" s="61" t="s">
+      <c r="O28" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="61" t="s">
+      <c r="P28" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="62" t="s">
+      <c r="Q28" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="62" t="s">
+      <c r="R28" s="63" t="s">
         <v>33</v>
-      </c>
-      <c r="R28" s="63" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1">
@@ -2262,38 +2222,38 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="75" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="75" t="s">
-        <v>36</v>
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="64"/>
       <c r="J30" s="39"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="103" t="s">
+      <c r="L30" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="101"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="75" t="s">
         <v>35</v>
-      </c>
-      <c r="M30" s="104"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="75" t="s">
-        <v>36</v>
       </c>
       <c r="P30" s="67"/>
       <c r="Q30" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R30" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
@@ -2318,24 +2278,24 @@
     </row>
     <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
+      <c r="B32" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="30"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="112"/>
+      <c r="L32" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="109"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
@@ -2344,13 +2304,13 @@
       <c r="A33" s="71"/>
       <c r="B33" s="81"/>
       <c r="C33" s="79" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -2360,18 +2320,18 @@
       <c r="K33" s="71"/>
       <c r="L33" s="81"/>
       <c r="M33" s="79" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N33" s="79" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="74" customFormat="1" ht="15.75">
       <c r="A34" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="69"/>
       <c r="C34" s="70"/>
@@ -2383,10 +2343,10 @@
       <c r="I34" s="64"/>
       <c r="J34" s="39"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
       <c r="P34" s="64"/>
       <c r="Q34" s="64"/>
       <c r="R34" s="64"/>
@@ -2394,16 +2354,16 @@
     <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="D35" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="E35" s="80" t="s">
         <v>40</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>41</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -2412,16 +2372,16 @@
       <c r="J35" s="73"/>
       <c r="K35" s="71"/>
       <c r="L35" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="79" t="s">
+      <c r="N35" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="N35" s="79" t="s">
+      <c r="O35" s="80" t="s">
         <v>40</v>
-      </c>
-      <c r="O35" s="80" t="s">
-        <v>41</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -2469,8 +2429,10 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
     </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -2481,63 +2443,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="28"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="L38:R39"/>
+  <mergeCells count="18">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="L32:O32"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
     <mergeCell ref="L30:N30"/>
@@ -2546,8 +2463,6 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="L32:O32"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="M15:R15"/>
@@ -2559,7 +2474,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
